--- a/LAB/excelsheet.xlsx
+++ b/LAB/excelsheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>poojasawant1030@dbatu.ac.in</t>
   </si>
 </sst>
 </file>
@@ -399,14 +402,15 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -434,13 +438,13 @@
         <v>8530566419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1995</v>
       </c>
       <c r="E2" s="3">
-        <v>44917</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
